--- a/data/toc/toc_ptf.xlsx
+++ b/data/toc/toc_ptf.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5420f79c2d515b70/All/PacificoTaskForce/ptfr/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5420f79c2d515b70/All/PacificoTaskForce/ptfr/data/toc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="360" documentId="8_{04405090-59D7-4F36-89CF-0C27D58B8C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED876C61-8C2D-42CF-BA5A-0B3F70028E7A}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="8_{04405090-59D7-4F36-89CF-0C27D58B8C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{011B15D1-AB2E-4023-9B33-55208B52205A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
     <sheet name="nodes" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edges!$A$1:$E$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$E$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edges!$A$1:$E$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nodes!$A$1:$E$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="81">
   <si>
     <t>from</t>
   </si>
@@ -70,9 +70,6 @@
     <t>shape</t>
   </si>
   <si>
-    <t>ellipse</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
@@ -197,22 +194,6 @@
   </si>
   <si>
     <t>Categorías cuali</t>
-  </si>
-  <si>
-    <t>- Se realizaron?
-- Quiénes participaron?
-- Costo? (si es relevante?)</t>
-  </si>
-  <si>
-    <t>- # de diplomados
-- # de participantes en cada diplomado
-- # de participantes por organización
-- % de organizaciones cuyos líderes/representantes participan</t>
-  </si>
-  <si>
-    <t>- cobertura de orgabizaciones
-- diversidad de participantes
-- relevancia de contenidos</t>
   </si>
   <si>
     <t>- se hizo?
@@ -229,10 +210,122 @@
 - alcance del acompanamiento</t>
   </si>
   <si>
-    <t>requiere que líderes efectivamente participen, entiendan, y apliquen. Motivación de los líderes</t>
-  </si>
-  <si>
     <t>barreras para eso como comunicaciones, etc.</t>
+  </si>
+  <si>
+    <t>- # de diplomados
+- # de participantes en cada diplomado
+- # de participantes por organización
+- % de organizaciones cuyos líderes/representantes participan
+- % de los miembros de cada organización que participan</t>
+  </si>
+  <si>
+    <t>- cobertura de orgabizaciones
+- diversidad de participantes
+- relevancia de contenidos
+- pertinencia de contenidos</t>
+  </si>
+  <si>
+    <t>requiere que líderes efectivamente participen y entiendan, y compartan. Motivación de los líderes</t>
+  </si>
+  <si>
+    <t>- ¿Se llevaron a cabo los diplomados en liderazgo y enfoque de acción interseccional en el Pacífico colombiano?
+- ¿Quiénes participaron en los diplomados y cuál fue su perfil?
+- ¿Cuál fue el costo de los diplomados y en qué medida fue relevante para su implementación?</t>
+  </si>
+  <si>
+    <t>Recursos humanos</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>- ¿Son suficientes y adecuados los recursos humanos con que cuentan las OA para el desarrollo del acompañamiento y los proyectos?</t>
+  </si>
+  <si>
+    <t>- # de personas involucradas en cada organización y rol que desempeñan.
+- Promedio de horas dedicadas por persona al acompañamiento y administración de recursos PTF.
+- Razón de participantes por facilitador en capacitaciones o asistencia técnica.</t>
+  </si>
+  <si>
+    <t>- Percepciones sobre la carga de trabajo y distribución del equipo.
+- Nivel de especialización del personal en relación con las necesidades.
+- Dificultades enfrentadas por falta de personal o capacidades.
+- Estrategias implementadas para compensar posibles deficiencias en recursos humanos.</t>
+  </si>
+  <si>
+    <t>Recursos tecnológicos</t>
+  </si>
+  <si>
+    <t>- ¿Son adecuados y suficientes los recursos tecnológicos disponibles para la OA para el desarrollo del modelo de acompañamiento PTF?</t>
+  </si>
+  <si>
+    <t>- Porcentaje de OA que reportan disponibilidad suficiente a tecnología.
+- Frecuencia de uso de los recursos tecnológicos en las actividades del programa.</t>
+  </si>
+  <si>
+    <t>- Percepción sobre la adecuación de la tecnología a las necesidades.
+- Dificultades técnicas experimentadas.
+- Percepción del efecto de la tecnología en la eficiencia del trabajo.
+- Estrategias para mitigar la falta de tecnología (e.g. uso de alternativas, apoyo de terceros).</t>
+  </si>
+  <si>
+    <t>Recursos financieros</t>
+  </si>
+  <si>
+    <t>- ¿Son adecuados y suficientes los recursos financieros asignados para la implementación de los proyectos?
+- ¿Es eficiente y accesible el proceso de gestión y transferencia de los recursos financieros?</t>
+  </si>
+  <si>
+    <t>- Monto total de fondos asignados por OA y por proyecto.
+- % de OA que consideran los fondos suficientes.
+- % de OB que consideran los fondos suficientes.
+- Presupuestado, vs. recibido, vs. ejecutado.
+- Tiempo promedio entre la solicitud y la recepción de fondos.
+- # de organizaciones que han experimentado retrasos en los desembolsos.
+- % de organizaciones que consideran claros los procedimientos financieros.
+- # de horas dedicadas a la gestión administrativa de los recursos.</t>
+  </si>
+  <si>
+    <t>- Percepción sobre la suficiencia de los fondos en relación con las necesidades.
+- Dificultades encontradas en la ejecución financiera (demoras, restricciones, burocracia).
+- Estrategias utilizadas para complementar recursos financieros.
+- Impacto de la disponibilidad de fondos en la planificación y ejecución del proyecto.
+- Facilidad percibida en la gestión de los recursos financieros.</t>
+  </si>
+  <si>
+    <t>- Los líderes cualificados, tienen competencias en liderazgo y entienden y comparten el enfoque de acción interseccional?
+- Los líderes cualificados tienen presene el ecosistema de organizaciones?</t>
+  </si>
+  <si>
+    <t>- % de líderes que valoran positivamente el enfoque de acción interseccional
+- % de líderes que reconocen las organizaciones del ecosistema</t>
+  </si>
+  <si>
+    <t>- Percepción de los líderes sobre su aprendizaje y fortalecimiento de competencias en liderazgo.
+- Dificultades encontradas en la comprensión o implementación del enfoque de acción interseccional.
+- Cambios en la autopercepción del liderazgo tras el diplomado.
+- valoración de la utilidad del ecosistema</t>
+  </si>
+  <si>
+    <t>- Los líderes cualificados tienen presene el ecosistema de organizaciones?</t>
+  </si>
+  <si>
+    <t>- % de líderes que reconocen las organizaciones del ecosistema</t>
+  </si>
+  <si>
+    <t>- valoración de la utilidad del ecosistema</t>
+  </si>
+  <si>
+    <t>- Los líderes cualificados tienen iniciativa para articularse con otras orgabizaciones?
+- Han intentado?
+- Son receptivas las demás orgaizaciones?</t>
+  </si>
+  <si>
+    <t>- % de líderes que tienen iniciativa de buscar articulación con otras organizaciones</t>
+  </si>
+  <si>
+    <t>- barreras enfrentadas</t>
   </si>
 </sst>
 </file>
@@ -251,7 +344,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -260,12 +353,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -280,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -301,6 +400,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,13 +722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,227 +758,239 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="5"/>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
@@ -887,11 +1001,17 @@
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="7"/>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E68" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E70" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
@@ -911,13 +1031,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -948,345 +1068,387 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="116" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="G6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="G9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
+      <c r="G11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1294,19 +1456,19 @@
     </row>
     <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -1314,32 +1476,72 @@
     </row>
     <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E59" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:E61" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
